--- a/output/2022_BCEPR_master_results_2023-05-24_.xlsx
+++ b/output/2022_BCEPR_master_results_2023-05-24_.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t xml:space="preserve">trait</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">root_weight_air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flesh_color_50inner1_8</t>
   </si>
   <si>
     <t xml:space="preserve">trial_name</t>
@@ -1158,14 +1155,6 @@
         <v>1236.97503204705</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#NUM!</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1182,13 +1171,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -1196,7 +1185,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>8.22</v>
@@ -1210,7 +1199,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>6.99</v>
@@ -1224,7 +1213,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>7.39</v>
@@ -1238,7 +1227,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>6.49</v>
@@ -1252,7 +1241,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="n">
         <v>-2.33</v>
@@ -1266,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="n">
         <v>3.07</v>
@@ -1280,7 +1269,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
         <v>4.39</v>
@@ -1294,7 +1283,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="n">
         <v>4.14</v>
@@ -1308,7 +1297,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>4.69</v>
@@ -1322,7 +1311,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>5.95</v>
@@ -1336,7 +1325,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
         <v>4.97</v>
@@ -1350,7 +1339,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>8.69</v>
@@ -1364,7 +1353,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>2.94</v>
@@ -1378,7 +1367,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>8.22</v>
@@ -1392,7 +1381,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>6.4</v>
@@ -1406,7 +1395,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
         <v>6.39</v>
@@ -1420,7 +1409,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>5.39</v>
@@ -1434,7 +1423,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
         <v>8.35</v>
@@ -1448,7 +1437,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>8.69</v>
@@ -1476,13 +1465,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
@@ -1490,7 +1479,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>82.17</v>
@@ -1504,7 +1493,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>69.86</v>
@@ -1518,7 +1507,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>73.89</v>
@@ -1532,7 +1521,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>64.94</v>
@@ -1546,7 +1535,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="n">
         <v>-23.28</v>
@@ -1560,7 +1549,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="n">
         <v>30.71</v>
@@ -1574,7 +1563,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
         <v>43.86</v>
@@ -1588,7 +1577,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="n">
         <v>41.41</v>
@@ -1602,7 +1591,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>46.87</v>
@@ -1616,7 +1605,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>59.53</v>
@@ -1630,7 +1619,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
         <v>49.75</v>
@@ -1644,7 +1633,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>86.94</v>
@@ -1658,7 +1647,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>29.45</v>
@@ -1672,7 +1661,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>82.17</v>
@@ -1686,7 +1675,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>64.01</v>
@@ -1700,7 +1689,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
         <v>63.94</v>
@@ -1714,7 +1703,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>53.9</v>
@@ -1728,7 +1717,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
         <v>83.51</v>
@@ -1742,7 +1731,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>86.86</v>
@@ -1770,13 +1759,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
@@ -1784,7 +1773,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>138.8</v>
@@ -1798,7 +1787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>137.74</v>
@@ -1812,7 +1801,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>79.41</v>
@@ -1826,7 +1815,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>173.28</v>
@@ -1840,7 +1829,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>160.66</v>
@@ -1854,7 +1843,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>54.76</v>
@@ -1868,7 +1857,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>67.96</v>
@@ -1882,7 +1871,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>241.76</v>
@@ -1896,7 +1885,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>43.43</v>
@@ -1910,7 +1899,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>81.57</v>
@@ -1924,7 +1913,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>134.71</v>
@@ -1938,7 +1927,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>106.8</v>
@@ -1952,7 +1941,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>186.57</v>
@@ -1966,7 +1955,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>115.67</v>
@@ -1980,7 +1969,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>214.03</v>
@@ -1994,7 +1983,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>159.09</v>
@@ -2008,7 +1997,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>154.11</v>
@@ -2022,7 +2011,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>100.92</v>
@@ -2036,7 +2025,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -2062,13 +2051,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -2076,7 +2065,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>18.87</v>
@@ -2090,7 +2079,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>13.43</v>
@@ -2104,7 +2093,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>12.22</v>
@@ -2118,7 +2107,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>6.99</v>
@@ -2132,7 +2121,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>3.74</v>
@@ -2146,7 +2135,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>6.23</v>
@@ -2160,7 +2149,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>4.73</v>
@@ -2174,7 +2163,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>7.42</v>
@@ -2188,7 +2177,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>8.08</v>
@@ -2202,7 +2191,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>7.35</v>
@@ -2216,7 +2205,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>14.66</v>
@@ -2230,7 +2219,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>5.26</v>
@@ -2244,7 +2233,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>0.17</v>
@@ -2258,7 +2247,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>0.63</v>
@@ -2272,7 +2261,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>13.12</v>
@@ -2286,7 +2275,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>-2.56</v>
@@ -2300,7 +2289,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>9.79</v>
@@ -2314,7 +2303,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>18.35</v>
@@ -2328,7 +2317,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -2354,13 +2343,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2368,7 +2357,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>2.48</v>
@@ -2382,7 +2371,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>3.07</v>
@@ -2396,7 +2385,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>3.08</v>
@@ -2410,7 +2399,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>1.94</v>
@@ -2424,7 +2413,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -2438,7 +2427,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>3.05</v>
@@ -2452,7 +2441,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>3.08</v>
@@ -2466,7 +2455,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>2.89</v>
@@ -2480,7 +2469,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>3.01</v>
@@ -2494,7 +2483,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>2.91</v>
@@ -2508,7 +2497,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>3.07</v>
@@ -2522,7 +2511,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -2536,7 +2525,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>2.94</v>
@@ -2550,7 +2539,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>2.89</v>
@@ -2564,7 +2553,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>2.95</v>
@@ -2578,7 +2567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>2.96</v>
@@ -2592,7 +2581,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -2606,7 +2595,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>1.1</v>
@@ -2620,7 +2609,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -2646,13 +2635,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -2660,7 +2649,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>2.15</v>
@@ -2674,7 +2663,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>3.03</v>
@@ -2688,7 +2677,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>2.34</v>
@@ -2702,7 +2691,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>3.31</v>
@@ -2716,7 +2705,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>3.58</v>
@@ -2730,7 +2719,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>3.3</v>
@@ -2744,7 +2733,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>3.11</v>
@@ -2758,7 +2747,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>2.65</v>
@@ -2772,7 +2761,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>3.12</v>
@@ -2786,7 +2775,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>2.59</v>
@@ -2800,7 +2789,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>2.5</v>
@@ -2814,7 +2803,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>3.54</v>
@@ -2828,7 +2817,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>4.32</v>
@@ -2842,7 +2831,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>3.76</v>
@@ -2856,7 +2845,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>3.14</v>
@@ -2870,7 +2859,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>4.57</v>
@@ -2884,7 +2873,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>2.36</v>
@@ -2898,7 +2887,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>1.27</v>
@@ -2912,7 +2901,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -2938,13 +2927,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -2952,7 +2941,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>10.82</v>
@@ -2966,7 +2955,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -2980,7 +2969,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>4.07</v>
@@ -2994,7 +2983,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>3.25</v>
@@ -3008,7 +2997,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>0.35</v>
@@ -3022,7 +3011,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>3.66</v>
@@ -3036,7 +3025,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>2.83</v>
@@ -3050,7 +3039,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>4.21</v>
@@ -3064,7 +3053,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>2.98</v>
@@ -3078,7 +3067,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>3.51</v>
@@ -3092,7 +3081,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>4.73</v>
@@ -3106,7 +3095,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>2.31</v>
@@ -3120,7 +3109,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>1.18</v>
@@ -3134,7 +3123,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>2.29</v>
@@ -3148,7 +3137,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>5.28</v>
@@ -3162,7 +3151,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>0.57</v>
@@ -3176,7 +3165,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>6.21</v>
@@ -3190,7 +3179,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>11.02</v>
@@ -3204,7 +3193,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -3230,13 +3219,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -3244,7 +3233,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>3.95</v>
@@ -3258,7 +3247,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>3.47</v>
@@ -3272,7 +3261,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>3.55</v>
@@ -3286,7 +3275,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>4.18</v>
@@ -3300,7 +3289,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>2.19</v>
@@ -3314,7 +3303,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>2.7</v>
@@ -3328,7 +3317,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>2.45</v>
@@ -3342,7 +3331,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>3.61</v>
@@ -3356,7 +3345,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>2.93</v>
@@ -3370,7 +3359,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>2.14</v>
@@ -3384,7 +3373,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>3.94</v>
@@ -3398,7 +3387,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>3.27</v>
@@ -3412,7 +3401,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>3.44</v>
@@ -3426,7 +3415,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>3.46</v>
@@ -3440,7 +3429,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>3.53</v>
@@ -3454,7 +3443,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>2.89</v>
@@ -3468,7 +3457,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>3.57</v>
@@ -3482,7 +3471,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>3.59</v>
@@ -3496,7 +3485,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -3522,13 +3511,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -3536,7 +3525,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>14.09</v>
@@ -3550,7 +3539,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>7.82</v>
@@ -3564,7 +3553,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>5.3</v>
@@ -3578,7 +3567,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>4.23</v>
@@ -3592,7 +3581,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>0.45</v>
@@ -3606,7 +3595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>4.77</v>
@@ -3620,7 +3609,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>3.68</v>
@@ -3634,7 +3623,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>5.48</v>
@@ -3648,7 +3637,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>3.88</v>
@@ -3662,7 +3651,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>4.58</v>
@@ -3676,7 +3665,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>6.15</v>
@@ -3690,7 +3679,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>3.01</v>
@@ -3704,7 +3693,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>1.53</v>
@@ -3718,7 +3707,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>2.98</v>
@@ -3732,7 +3721,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>6.88</v>
@@ -3746,7 +3735,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>0.74</v>
@@ -3760,7 +3749,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>8.08</v>
@@ -3774,7 +3763,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>14.35</v>
@@ -3788,7 +3777,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -3814,24 +3803,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3848,7 +3837,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="n">
         <v>0.695875584535213</v>
@@ -3865,7 +3854,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
         <v>2.21866623295007</v>
@@ -3882,7 +3871,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="n">
         <v>2.26316686820109</v>
@@ -3899,7 +3888,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="n">
         <v>2.39363269670126</v>
@@ -3916,7 +3905,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="n">
         <v>4.69916109567949</v>
@@ -3933,7 +3922,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="n">
         <v>4.82286998260738</v>
@@ -3950,7 +3939,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="n">
         <v>5.15518885973745</v>
@@ -3967,7 +3956,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="n">
         <v>5.28437334547592</v>
@@ -3984,7 +3973,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="n">
         <v>5.33440137925366</v>
@@ -4001,7 +3990,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="n">
         <v>5.42865967220353</v>
@@ -4018,7 +4007,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>5.580460915244</v>
@@ -4035,7 +4024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="n">
         <v>5.79435189118296</v>
@@ -4052,7 +4041,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="n">
         <v>5.79959379032154</v>
@@ -4069,7 +4058,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="n">
         <v>6.33272345169206</v>
@@ -4086,7 +4075,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="n">
         <v>6.49409890841332</v>
@@ -4103,7 +4092,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="n">
         <v>6.53130996483118</v>
@@ -4120,7 +4109,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" t="n">
         <v>7.54616092524506</v>
@@ -4137,7 +4126,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="n">
         <v>8.62142913938261</v>
@@ -4168,36 +4157,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -4220,7 +4209,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -4249,7 +4238,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -4278,7 +4267,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4307,7 +4296,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -4330,7 +4319,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4353,42 +4342,48 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.925</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.29142772647121</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.289139145296052</v>
+      </c>
       <c r="G8" t="n">
         <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>7.925</v>
+        <v>79.25</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E9" t="n">
-        <v>2.29142772647121</v>
+        <v>22.9142772647121</v>
       </c>
       <c r="F9" t="n">
         <v>0.289139145296052</v>
@@ -4405,172 +4400,166 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="n">
-        <v>79.25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90</v>
-      </c>
-      <c r="E10" t="n">
-        <v>22.9142772647121</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.289139145296052</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="n">
         <v>40</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>187.564102564103</v>
+      </c>
+      <c r="D11" t="n">
+        <v>150</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87.6436549694857</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.467273075025283</v>
+      </c>
       <c r="G11" t="n">
         <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>187.564102564103</v>
-      </c>
-      <c r="D12" t="n">
-        <v>150</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87.6436549694857</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.467273075025283</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="n">
         <v>40</v>
       </c>
       <c r="H12" t="n">
+        <v>40</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.61538461538462</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.71138799153059</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.44038304237608</v>
+      </c>
       <c r="G13" t="n">
         <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>1.61538461538462</v>
+        <v>2.2972972972973</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.71138799153059</v>
+        <v>0.661012055061734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.44038304237608</v>
+        <v>0.287734659262167</v>
       </c>
       <c r="G14" t="n">
         <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>0.025</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.2972972972973</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.661012055061734</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.287734659262167</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="n">
         <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
-        <v>0.075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="e">
         <v>#NUM!</v>
@@ -4590,149 +4579,155 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.96484361562607</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.68960335504816</v>
+      </c>
       <c r="G17" t="n">
         <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.96484361562607</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.68960335504816</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="n">
         <v>40</v>
       </c>
       <c r="H18" t="n">
+        <v>40</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.871794871794872</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.31902301547199</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.66005581186493</v>
+      </c>
       <c r="G19" t="n">
         <v>40</v>
       </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.31902301547199</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.66005581186493</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="n">
         <v>40</v>
       </c>
       <c r="H20" t="n">
+        <v>40</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.79487179487179</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.570294807394764</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.204050435673356</v>
+      </c>
       <c r="G21" t="n">
         <v>40</v>
       </c>
       <c r="H21" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>2.79487179487179</v>
+        <v>2.23076923076923</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.570294807394764</v>
+        <v>0.841725622926793</v>
       </c>
       <c r="F22" t="n">
-        <v>0.204050435673356</v>
+        <v>0.377325279243045</v>
       </c>
       <c r="G22" t="n">
         <v>40</v>
@@ -4746,22 +4741,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>2.23076923076923</v>
+        <v>9.8848717948718</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>0.841725622926793</v>
+        <v>5.4198280569905</v>
       </c>
       <c r="F23" t="n">
-        <v>0.377325279243045</v>
+        <v>0.548295230273221</v>
       </c>
       <c r="G23" t="n">
         <v>40</v>
@@ -4775,22 +4770,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>9.8848717948718</v>
+        <v>1.02564102564103</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>5.4198280569905</v>
+        <v>0.160128153805087</v>
       </c>
       <c r="F24" t="n">
-        <v>0.548295230273221</v>
+        <v>0.15612494995996</v>
       </c>
       <c r="G24" t="n">
         <v>40</v>
@@ -4804,22 +4799,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>1.02564102564103</v>
+        <v>4.51282051282051</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.160128153805087</v>
+        <v>0.72081075959443</v>
       </c>
       <c r="F25" t="n">
-        <v>0.15612494995996</v>
+        <v>0.159725111501038</v>
       </c>
       <c r="G25" t="n">
         <v>40</v>
@@ -4833,22 +4828,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>4.51282051282051</v>
+        <v>19.6128408628409</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>19.8412698412698</v>
       </c>
       <c r="E26" t="n">
-        <v>0.72081075959443</v>
+        <v>10.7536270972034</v>
       </c>
       <c r="F26" t="n">
-        <v>0.159725111501038</v>
+        <v>0.548295230273221</v>
       </c>
       <c r="G26" t="n">
         <v>40</v>
@@ -4865,100 +4860,100 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>19.6128408628409</v>
+        <v>2.02631578947368</v>
       </c>
       <c r="D27" t="n">
-        <v>19.8412698412698</v>
+        <v>2.5</v>
       </c>
       <c r="E27" t="n">
-        <v>10.7536270972034</v>
+        <v>1.89575403389819</v>
       </c>
       <c r="F27" t="n">
-        <v>0.548295230273221</v>
+        <v>0.935566925819885</v>
       </c>
       <c r="G27" t="n">
         <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.02631578947368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.89575403389819</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.935566925819885</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="n">
         <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27.5897380769041</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.7143240605173</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.52366753227804</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.163961960047199</v>
+      </c>
       <c r="G29" t="n">
         <v>40</v>
       </c>
       <c r="H29" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>27.5897380769041</v>
+        <v>1.70597544483634</v>
       </c>
       <c r="D30" t="n">
-        <v>26.7143240605173</v>
+        <v>1.48712592042623</v>
       </c>
       <c r="E30" t="n">
-        <v>4.52366753227804</v>
+        <v>1.41467597794573</v>
       </c>
       <c r="F30" t="n">
-        <v>0.163961960047199</v>
+        <v>0.829247561697139</v>
       </c>
       <c r="G30" t="n">
         <v>40</v>
@@ -4972,22 +4967,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>1.70597544483634</v>
+        <v>5.59459459459459</v>
       </c>
       <c r="D31" t="n">
-        <v>1.48712592042623</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>1.41467597794573</v>
+        <v>2.77348015896855</v>
       </c>
       <c r="F31" t="n">
-        <v>0.829247561697139</v>
+        <v>0.495742830347035</v>
       </c>
       <c r="G31" t="n">
         <v>40</v>
@@ -5001,163 +4996,167 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>5.59459459459459</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>2.77348015896855</v>
+        <v>1.2833778958395</v>
       </c>
       <c r="F32" t="n">
-        <v>0.495742830347035</v>
+        <v>0.213896315973249</v>
       </c>
       <c r="G32" t="n">
         <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>0.075</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2833778958395</v>
+        <v>3.19615153198102</v>
       </c>
       <c r="F33" t="n">
-        <v>0.213896315973249</v>
+        <v>0.443909934997364</v>
       </c>
       <c r="G33" t="n">
         <v>40</v>
       </c>
       <c r="H33" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>90</v>
+      </c>
+      <c r="E34" t="n">
+        <v>31.9615153198102</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.443909934997364</v>
+      </c>
       <c r="G34" t="n">
         <v>40</v>
       </c>
       <c r="H34" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>7.2</v>
+        <v>193.157894736842</v>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="E35" t="n">
-        <v>3.19615153198102</v>
+        <v>41.5968594941061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.443909934997364</v>
+        <v>0.215351588661585</v>
       </c>
       <c r="G35" t="n">
         <v>40</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>72</v>
+        <v>132.631578947368</v>
       </c>
       <c r="D36" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E36" t="n">
-        <v>31.9615153198102</v>
+        <v>59.5788920778435</v>
       </c>
       <c r="F36" t="n">
-        <v>0.443909934997364</v>
+        <v>0.449205932332947</v>
       </c>
       <c r="G36" t="n">
         <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="n">
         <v>30</v>
       </c>
-      <c r="C37" t="n">
-        <v>193.157894736842</v>
-      </c>
       <c r="D37" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>41.5968594941061</v>
+        <v>4.02693633128415</v>
       </c>
       <c r="F37" t="n">
-        <v>0.215351588661585</v>
+        <v>0.134231211042805</v>
       </c>
       <c r="G37" t="n">
         <v>40</v>
@@ -5171,22 +5170,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>132.631578947368</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="D38" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>59.5788920778435</v>
+        <v>0.392859452063192</v>
       </c>
       <c r="F38" t="n">
-        <v>0.449205932332947</v>
+        <v>0.331747981742251</v>
       </c>
       <c r="G38" t="n">
         <v>40</v>
@@ -5200,22 +5199,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>2.44736842105263</v>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>4.02693633128415</v>
+        <v>0.685658823876425</v>
       </c>
       <c r="F39" t="n">
-        <v>0.134231211042805</v>
+        <v>0.280161669971012</v>
       </c>
       <c r="G39" t="n">
         <v>40</v>
@@ -5229,51 +5228,51 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>1.18421052631579</v>
+        <v>1.05405405405405</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.392859452063192</v>
+        <v>0.328797974610715</v>
       </c>
       <c r="F40" t="n">
-        <v>0.331747981742251</v>
+        <v>0.311936540015293</v>
       </c>
       <c r="G40" t="n">
         <v>40</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>2.44736842105263</v>
+        <v>2.78947368421053</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.685658823876425</v>
+        <v>0.4740791778346</v>
       </c>
       <c r="F41" t="n">
-        <v>0.280161669971012</v>
+        <v>0.16995291280863</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
@@ -5287,22 +5286,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
-        <v>1.05405405405405</v>
+        <v>9.24324324324324</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>0.328797974610715</v>
+        <v>6.40054427115124</v>
       </c>
       <c r="F42" t="n">
-        <v>0.311936540015293</v>
+        <v>0.692456543954959</v>
       </c>
       <c r="G42" t="n">
         <v>40</v>
@@ -5316,22 +5315,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
-        <v>2.78947368421053</v>
+        <v>1.68421052631579</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4740791778346</v>
+        <v>0.619732425168412</v>
       </c>
       <c r="F43" t="n">
-        <v>0.16995291280863</v>
+        <v>0.367966127443744</v>
       </c>
       <c r="G43" t="n">
         <v>40</v>
@@ -5345,22 +5344,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>9.24324324324324</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.40054427115124</v>
+        <v>2.1099649172325</v>
       </c>
       <c r="F44" t="n">
-        <v>0.692456543954959</v>
+        <v>2.69202420474491</v>
       </c>
       <c r="G44" t="n">
         <v>40</v>
@@ -5374,138 +5373,138 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>1.68421052631579</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>0.619732425168412</v>
+        <v>0.617560832130229</v>
       </c>
       <c r="F45" t="n">
-        <v>0.367966127443744</v>
+        <v>0.228497507888185</v>
       </c>
       <c r="G45" t="n">
         <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>0.783783783783784</v>
+        <v>2.81578947368421</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>2.1099649172325</v>
+        <v>0.562583959278571</v>
       </c>
       <c r="F46" t="n">
-        <v>2.69202420474491</v>
+        <v>0.199796172454072</v>
       </c>
       <c r="G46" t="n">
         <v>40</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>2.7027027027027</v>
+        <v>2.73684210526316</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>0.617560832130229</v>
+        <v>0.890921494594548</v>
       </c>
       <c r="F47" t="n">
-        <v>0.228497507888185</v>
+        <v>0.325529007640316</v>
       </c>
       <c r="G47" t="n">
         <v>40</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C48" t="n">
-        <v>2.81578947368421</v>
+        <v>4.41891891891892</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0.562583959278571</v>
+        <v>3.23795527368034</v>
       </c>
       <c r="F48" t="n">
-        <v>0.199796172454072</v>
+        <v>0.732748288233472</v>
       </c>
       <c r="G48" t="n">
         <v>40</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>2.73684210526316</v>
+        <v>1.02631578947368</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.890921494594548</v>
+        <v>0.162221421130763</v>
       </c>
       <c r="F49" t="n">
-        <v>0.325529007640316</v>
+        <v>0.158061897512025</v>
       </c>
       <c r="G49" t="n">
         <v>40</v>
@@ -5519,117 +5518,59 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>4.41891891891892</v>
+        <v>3.44736842105263</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E50" t="n">
-        <v>3.23795527368034</v>
+        <v>0.601680907667423</v>
       </c>
       <c r="F50" t="n">
-        <v>0.732748288233472</v>
+        <v>0.174533393063833</v>
       </c>
       <c r="G50" t="n">
         <v>40</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
-        <v>1.02631578947368</v>
+        <v>5.75380067567567</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>5.20833333333333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.162221421130763</v>
+        <v>4.21608759593795</v>
       </c>
       <c r="F51" t="n">
-        <v>0.158061897512025</v>
+        <v>0.732748288233472</v>
       </c>
       <c r="G51" t="n">
         <v>40</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.44736842105263</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.601680907667423</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.174533393063833</v>
-      </c>
-      <c r="G52" t="n">
-        <v>40</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" t="n">
-        <v>5.75380067567567</v>
-      </c>
-      <c r="D53" t="n">
-        <v>5.20833333333333</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.21608759593795</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.732748288233472</v>
-      </c>
-      <c r="G53" t="n">
-        <v>40</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-      <c r="I53" t="n">
         <v>0.075</v>
       </c>
     </row>
@@ -5649,24 +5590,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>0.804863105798818</v>
@@ -5683,7 +5624,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>1.06561166600293</v>
@@ -5700,7 +5641,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>1.29464246353566</v>
@@ -5717,7 +5658,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="n">
         <v>1.49076916351864</v>
@@ -5734,7 +5675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="n">
         <v>1.83421680079748</v>
@@ -5751,7 +5692,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
         <v>2.02969851835162</v>
@@ -5768,7 +5709,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="n">
         <v>2.03146459805922</v>
@@ -5785,7 +5726,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
         <v>2.58292694176074</v>
@@ -5802,7 +5743,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="n">
         <v>2.74248989929295</v>
@@ -5819,7 +5760,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>3.1954157301629</v>
@@ -5836,7 +5777,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="n">
         <v>3.30406109747367</v>
@@ -5853,7 +5794,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="n">
         <v>3.47321596896819</v>
@@ -5870,7 +5811,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="n">
         <v>4.0577381086376</v>
@@ -5887,7 +5828,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="n">
         <v>4.39666774306637</v>
@@ -5904,7 +5845,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" t="n">
         <v>4.42133146004029</v>
@@ -5921,7 +5862,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
         <v>5.12800899913554</v>
@@ -5938,7 +5879,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>5.2035000847355</v>
@@ -5955,7 +5896,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>5.29765993138558</v>
@@ -5972,7 +5913,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="n">
         <v>5.52389059593611</v>
@@ -6003,24 +5944,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="n">
         <v>0.158077593708641</v>
@@ -6037,7 +5978,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="n">
         <v>0.595317836931025</v>
@@ -6054,7 +5995,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>0.613760340101045</v>
@@ -6071,7 +6012,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>0.765186549946387</v>
@@ -6088,7 +6029,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="n">
         <v>0.792802820571796</v>
@@ -6105,7 +6046,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="n">
         <v>1.20315731079969</v>
@@ -6122,7 +6063,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="n">
         <v>1.39950542022825</v>
@@ -6139,7 +6080,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>1.55634527656031</v>
@@ -6156,7 +6097,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>1.73505231085116</v>
@@ -6173,7 +6114,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="n">
         <v>1.94393645942629</v>
@@ -6190,7 +6131,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="n">
         <v>1.96734615699891</v>
@@ -6207,7 +6148,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="n">
         <v>2.55049668668935</v>
@@ -6224,7 +6165,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>2.87072474361302</v>
@@ -6241,7 +6182,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="n">
         <v>2.92312838376359</v>
@@ -6258,7 +6199,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>2.96007171109662</v>
@@ -6275,7 +6216,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="n">
         <v>3.00326891276528</v>
@@ -6292,7 +6233,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="n">
         <v>3.00960588037856</v>
@@ -6309,7 +6250,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>4.37176351703497</v>
@@ -6326,7 +6267,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="n">
         <v>4.64010525041186</v>
@@ -6357,24 +6298,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="n">
         <v>1.58077593708658</v>
@@ -6391,7 +6332,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="n">
         <v>5.95317836931022</v>
@@ -6408,7 +6349,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>6.13760340101047</v>
@@ -6425,7 +6366,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>7.65186549946413</v>
@@ -6442,7 +6383,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="n">
         <v>7.92802820571801</v>
@@ -6459,7 +6400,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="n">
         <v>12.0315731079968</v>
@@ -6476,7 +6417,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="n">
         <v>13.9950542022825</v>
@@ -6493,7 +6434,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>15.5634527656031</v>
@@ -6510,7 +6451,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>17.3505231085117</v>
@@ -6527,7 +6468,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="n">
         <v>19.4393645942629</v>
@@ -6544,7 +6485,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="n">
         <v>19.6734615699893</v>
@@ -6561,7 +6502,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="n">
         <v>25.5049668668936</v>
@@ -6578,7 +6519,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>28.7072474361303</v>
@@ -6595,7 +6536,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="n">
         <v>29.2312838376358</v>
@@ -6612,7 +6553,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>29.6007171109662</v>
@@ -6629,7 +6570,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="n">
         <v>30.0326891276528</v>
@@ -6646,7 +6587,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="n">
         <v>30.0960588037856</v>
@@ -6663,7 +6604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>43.7176351703497</v>
@@ -6680,7 +6621,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="n">
         <v>46.4010525041186</v>
@@ -6711,24 +6652,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
-        <v>131</v>
-      </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -6745,7 +6686,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="n">
         <v>37.9889078403832</v>
@@ -6762,7 +6703,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="n">
         <v>58.6170305583496</v>
@@ -6779,7 +6720,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>61.9303651694935</v>
@@ -6796,7 +6737,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="n">
         <v>64.5249598563825</v>
@@ -6813,7 +6754,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="n">
         <v>73.9451640690506</v>
@@ -6830,7 +6771,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="n">
         <v>75.5534593624947</v>
@@ -6847,7 +6788,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="n">
         <v>89.694910900495</v>
@@ -6864,7 +6805,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="n">
         <v>92.2302361355693</v>
@@ -6881,7 +6822,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="n">
         <v>94.368398527189</v>
@@ -6898,7 +6839,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="n">
         <v>96.4683003233253</v>
@@ -6915,7 +6856,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>106.617599211373</v>
@@ -6932,7 +6873,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="n">
         <v>108.754176150047</v>
@@ -6949,7 +6890,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="n">
         <v>111.313784865479</v>
@@ -6966,7 +6907,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="n">
         <v>116.719279319459</v>
@@ -6983,7 +6924,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="n">
         <v>119.330693374484</v>
@@ -7000,7 +6941,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="n">
         <v>121.193643378534</v>
@@ -7017,7 +6958,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="n">
         <v>131.732131318497</v>
@@ -7034,7 +6975,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="n">
         <v>148.925317076477</v>
@@ -7065,24 +7006,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="n">
         <v>0.190043924630266</v>
@@ -7099,7 +7040,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="n">
         <v>2.53233110045503</v>
@@ -7116,7 +7057,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="n">
         <v>2.7320131596442</v>
@@ -7133,7 +7074,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>3.48913863485215</v>
@@ -7150,7 +7091,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="n">
         <v>3.56623488216177</v>
@@ -7167,7 +7108,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="n">
         <v>4.31961397460273</v>
@@ -7184,7 +7125,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="n">
         <v>4.70727077647221</v>
@@ -7201,7 +7142,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="n">
         <v>4.84062100768802</v>
@@ -7218,7 +7159,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="n">
         <v>4.8450103401688</v>
@@ -7235,7 +7176,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="n">
         <v>5.38971707621153</v>
@@ -7252,7 +7193,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="n">
         <v>6.05175502157253</v>
@@ -7269,7 +7210,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>6.41729406458482</v>
@@ -7286,7 +7227,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" t="n">
         <v>6.5108178354567</v>
@@ -7303,7 +7244,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="n">
         <v>7.3194927859794</v>
@@ -7320,7 +7261,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="n">
         <v>7.46568045897819</v>
@@ -7337,7 +7278,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="n">
         <v>7.94485336437589</v>
@@ -7354,7 +7295,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="n">
         <v>8.13883702324519</v>
@@ -7371,7 +7312,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="n">
         <v>9.86559851508375</v>
@@ -7388,7 +7329,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="n">
         <v>11.3005192883989</v>
@@ -7419,24 +7360,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -7453,7 +7394,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="n">
         <v>0.209768696098183</v>
@@ -7470,7 +7411,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
         <v>0.217185613568238</v>
@@ -7487,7 +7428,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="n">
         <v>0.247854148646381</v>
@@ -7504,7 +7445,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="n">
         <v>0.275466461814596</v>
@@ -7521,7 +7462,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>0.28231069785745</v>
@@ -7538,7 +7479,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.287042843463527</v>
@@ -7555,7 +7496,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="n">
         <v>0.294533202804114</v>
@@ -7572,7 +7513,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
         <v>0.298001738286051</v>
@@ -7589,7 +7530,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="n">
         <v>0.31319598136016</v>
@@ -7606,7 +7547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" t="n">
         <v>0.36102145013641</v>
@@ -7623,7 +7564,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="n">
         <v>0.374491381447945</v>
@@ -7640,7 +7581,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="n">
         <v>0.384156314605446</v>
@@ -7657,7 +7598,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>0.398376650774102</v>
@@ -7674,7 +7615,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="n">
         <v>0.400423220128132</v>
@@ -7691,7 +7632,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="n">
         <v>0.470617246220767</v>
@@ -7708,7 +7649,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" t="n">
         <v>0.507711955978622</v>
@@ -7725,7 +7666,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" t="n">
         <v>0.671196507999486</v>
@@ -7742,7 +7683,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>1.27903071008684</v>
@@ -7773,24 +7714,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -7807,7 +7748,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="n">
         <v>0.295656097150453</v>
@@ -7824,7 +7765,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="n">
         <v>0.383649323680593</v>
@@ -7841,7 +7782,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="n">
         <v>0.48867377871027</v>
@@ -7858,7 +7799,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="n">
         <v>0.521078728969761</v>
@@ -7875,7 +7816,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="n">
         <v>0.543856791859448</v>
@@ -7892,7 +7833,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>0.585756311766447</v>
@@ -7909,7 +7850,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="n">
         <v>0.670867658434417</v>
@@ -7926,7 +7867,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="n">
         <v>0.677728203919635</v>
@@ -7943,7 +7884,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>0.681315293267135</v>
@@ -7960,7 +7901,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="n">
         <v>0.716469875001349</v>
@@ -7977,7 +7918,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="n">
         <v>0.719904585078256</v>
@@ -7994,7 +7935,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="n">
         <v>0.731297122411679</v>
@@ -8011,7 +7952,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="n">
         <v>0.744908152859718</v>
@@ -8028,7 +7969,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="n">
         <v>0.852856560942436</v>
@@ -8045,7 +7986,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="n">
         <v>0.874359503298609</v>
@@ -8062,7 +8003,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" t="n">
         <v>0.93488534904738</v>
@@ -8079,7 +8020,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" t="n">
         <v>1.03504989341601</v>
@@ -8096,7 +8037,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>1.31424687327847</v>
@@ -8127,24 +8068,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
-        <v>143</v>
-      </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>2.09428802535753</v>
@@ -8161,7 +8102,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="n">
         <v>2.24637294725867</v>
@@ -8178,7 +8119,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="n">
         <v>2.32118887488513</v>
@@ -8195,7 +8136,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="n">
         <v>3.0896804489132</v>
@@ -8212,7 +8153,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="n">
         <v>3.09111191033979</v>
@@ -8229,7 +8170,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
         <v>3.63472306618665</v>
@@ -8246,7 +8187,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
         <v>4.06714603988693</v>
@@ -8263,7 +8204,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="n">
         <v>4.32115382769872</v>
@@ -8280,7 +8221,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>4.58157649495165</v>
@@ -8297,7 +8238,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="n">
         <v>4.72459706024049</v>
@@ -8314,7 +8255,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="n">
         <v>4.87560370068017</v>
@@ -8331,7 +8272,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
         <v>4.90333174461481</v>
@@ -8348,7 +8289,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="n">
         <v>6.25308921350059</v>
@@ -8365,7 +8306,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="n">
         <v>6.25356601895671</v>
@@ -8382,7 +8323,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="n">
         <v>6.381308826853</v>
@@ -8399,7 +8340,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>7.72407418579311</v>
@@ -8416,7 +8357,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="n">
         <v>7.86514549204997</v>
@@ -8433,7 +8374,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>7.9868130047539</v>
@@ -8450,7 +8391,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="n">
         <v>8.24682186353211</v>
@@ -8481,24 +8422,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="n">
         <v>0.0605098699925248</v>
@@ -8515,7 +8456,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="n">
         <v>0.250156255395379</v>
@@ -8532,7 +8473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>0.283760180423937</v>
@@ -8549,7 +8490,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="n">
         <v>0.298085674717273</v>
@@ -8566,7 +8507,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="n">
         <v>0.301842510756694</v>
@@ -8583,7 +8524,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="n">
         <v>0.312193777276336</v>
@@ -8600,7 +8541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="n">
         <v>0.329097124772742</v>
@@ -8617,7 +8558,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="n">
         <v>0.339323114702848</v>
@@ -8634,7 +8575,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
         <v>0.386452353069916</v>
@@ -8651,7 +8592,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="n">
         <v>0.391731088537084</v>
@@ -8668,7 +8609,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="n">
         <v>0.396432813888382</v>
@@ -8685,7 +8626,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="n">
         <v>0.449029285838514</v>
@@ -8702,7 +8643,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="n">
         <v>0.503802117024247</v>
@@ -8719,7 +8660,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="n">
         <v>0.576611026882631</v>
@@ -8736,7 +8677,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="n">
         <v>0.644583541739126</v>
@@ -8753,7 +8694,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>0.695547441240286</v>
@@ -8770,7 +8711,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="n">
         <v>0.86194807195378</v>
@@ -8787,7 +8728,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>0.886633346911502</v>
@@ -8804,7 +8745,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="n">
         <v>0.978613350339945</v>
@@ -8835,24 +8776,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>2.99337035800372</v>
@@ -8869,7 +8810,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>3.48924394973381</v>
@@ -8886,7 +8827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="n">
         <v>4.20668188726235</v>
@@ -8903,7 +8844,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="n">
         <v>4.43852849703906</v>
@@ -8920,7 +8861,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="n">
         <v>4.45687644764328</v>
@@ -8937,7 +8878,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
         <v>4.86874368587833</v>
@@ -8954,7 +8895,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="n">
         <v>5.62650237981607</v>
@@ -8971,7 +8912,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="n">
         <v>7.1507335229581</v>
@@ -8988,7 +8929,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>7.70275119657529</v>
@@ -9005,7 +8946,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="n">
         <v>8.0697342061256</v>
@@ -9022,7 +8963,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="n">
         <v>8.41958838660187</v>
@@ -9039,7 +8980,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
         <v>8.79976903591209</v>
@@ -9056,7 +8997,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="n">
         <v>11.3560215433773</v>
@@ -9073,7 +9014,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="n">
         <v>11.6528556663209</v>
@@ -9090,7 +9031,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="n">
         <v>12.0632664768028</v>
@@ -9107,7 +9048,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>13.9248193528248</v>
@@ -9124,7 +9065,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="n">
         <v>15.1613062928039</v>
@@ -9141,7 +9082,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="n">
         <v>15.2081328847807</v>
@@ -9158,7 +9099,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="n">
         <v>15.4455654849044</v>
@@ -9189,150 +9130,150 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>83</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>85</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>87</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>88</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>89</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>90</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>91</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>-1.1</v>
@@ -9475,7 +9416,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>-0.2</v>
@@ -9618,7 +9559,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>1.7</v>
@@ -9761,7 +9702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>-0.3</v>
@@ -9904,7 +9845,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -9963,7 +9904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="n">
         <v>2.5</v>
@@ -10106,7 +10047,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
         <v>5.3</v>
@@ -10249,7 +10190,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="n">
         <v>4.4</v>
@@ -10392,7 +10333,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>0.5</v>
@@ -10535,7 +10476,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>5.5</v>
@@ -10678,7 +10619,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
         <v>3.7</v>
@@ -10821,7 +10762,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>1.3</v>
@@ -10964,7 +10905,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>3.4</v>
@@ -11107,7 +11048,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>-1.3</v>
@@ -11250,7 +11191,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>3.9</v>
@@ -11393,7 +11334,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
         <v>-0.1</v>
@@ -11536,7 +11477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>1.7</v>
@@ -11679,7 +11620,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
         <v>-1.5</v>
@@ -11822,7 +11763,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -11979,216 +11920,216 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
         <v>150</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP1" t="s">
         <v>146</v>
       </c>
-      <c r="BL1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>148</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>13.8483441953816</v>
@@ -12397,7 +12338,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>28.7615784891452</v>
@@ -12606,7 +12547,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>21.1024491939258</v>
@@ -12815,7 +12756,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>5.6623162662158</v>
@@ -13024,7 +12965,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>0.124965189128837</v>
@@ -13233,7 +13174,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>-9.02952497849689</v>
@@ -13442,7 +13383,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>-13.4958907577757</v>
@@ -13651,7 +13592,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>23.5388998734729</v>
@@ -13860,7 +13801,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>-19.3540319415928</v>
@@ -14069,7 +14010,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>-14.96240979816</v>
@@ -14278,7 +14219,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>-19.833251204641</v>
@@ -14487,7 +14428,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>-3.00132084973144</v>
@@ -14696,7 +14637,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>15.8487415860688</v>
@@ -14905,7 +14846,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>-28.6728715323477</v>
@@ -15114,7 +15055,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>-13.2116021705788</v>
@@ -15323,7 +15264,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>-30.8669180879705</v>
@@ -15532,7 +15473,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>37.7130275668366</v>
@@ -15741,7 +15682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>21.9079071512338</v>
@@ -15950,7 +15891,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="n">
         <v>-16.0804081901145</v>
@@ -16155,108 +16096,108 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
       <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
-        <v>74</v>
-      </c>
       <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" t="s">
-        <v>78</v>
-      </c>
       <c r="Z1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" t="s">
-        <v>86</v>
-      </c>
       <c r="AD1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" t="s">
-        <v>92</v>
-      </c>
       <c r="AF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" t="s">
         <v>112</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>29.3</v>
@@ -16357,7 +16298,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>33.7</v>
@@ -16458,7 +16399,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>35</v>
@@ -16559,7 +16500,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>26.4</v>
@@ -16660,7 +16601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="n">
         <v>23.7</v>
@@ -16761,7 +16702,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="n">
         <v>31.3</v>
@@ -16862,7 +16803,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
         <v>29.4</v>
@@ -16963,7 +16904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="n">
         <v>26.7</v>
@@ -17064,7 +17005,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>28.3</v>
@@ -17165,7 +17106,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>26.8</v>
@@ -17266,7 +17207,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
         <v>28.2</v>
@@ -17367,7 +17308,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>25.6</v>
@@ -17468,7 +17409,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>28.1</v>
@@ -17569,7 +17510,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>26.8</v>
@@ -17670,7 +17611,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>28.3</v>
@@ -17771,7 +17712,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
         <v>24.9</v>
@@ -17872,7 +17813,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>25.1</v>
@@ -17973,7 +17914,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
         <v>34.3</v>
@@ -18074,7 +18015,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>31.6</v>
@@ -18189,7 +18130,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -18266,7 +18207,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
@@ -18327,7 +18268,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="n">
         <v>0.97</v>
@@ -18419,7 +18360,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -18526,7 +18467,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -18564,7 +18505,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>31.81</v>
@@ -18602,7 +18543,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>31.13</v>
@@ -18640,7 +18581,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>34.21</v>
@@ -18678,7 +18619,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>26.92</v>
@@ -18716,7 +18657,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="n">
         <v>23.56</v>
@@ -18754,7 +18695,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="n">
         <v>25.9</v>
@@ -18792,7 +18733,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
         <v>26.95</v>
@@ -18830,7 +18771,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="n">
         <v>26.54</v>
@@ -18868,7 +18809,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
         <v>27.43</v>
@@ -18906,7 +18847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
         <v>25.35</v>
@@ -18944,7 +18885,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="n">
         <v>26.16</v>
@@ -18982,7 +18923,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>25.01</v>
@@ -19020,7 +18961,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>26.43</v>
@@ -19058,7 +18999,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>27.58</v>
@@ -19096,7 +19037,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="n">
         <v>26.19</v>
@@ -19134,7 +19075,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="n">
         <v>26.72</v>
@@ -19172,7 +19113,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
         <v>22.29</v>
@@ -19210,7 +19151,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
         <v>33.23</v>
@@ -19248,7 +19189,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="n">
         <v>31.01</v>
@@ -19300,13 +19241,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -19314,7 +19255,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>34.09</v>
@@ -19328,7 +19269,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>29.35</v>
@@ -19342,7 +19283,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>34.05</v>
@@ -19356,7 +19297,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>27.09</v>
@@ -19370,7 +19311,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>21.05</v>
@@ -19384,7 +19325,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>24.72</v>
@@ -19398,7 +19339,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>25.98</v>
@@ -19412,7 +19353,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>26.46</v>
@@ -19426,7 +19367,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>23.58</v>
@@ -19440,7 +19381,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>24.18</v>
@@ -19454,7 +19395,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>23.97</v>
@@ -19468,7 +19409,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>24.76</v>
@@ -19482,7 +19423,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>27.99</v>
@@ -19496,7 +19437,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>24.09</v>
@@ -19510,7 +19451,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>27.69</v>
@@ -19524,7 +19465,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>19.05</v>
@@ -19538,7 +19479,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>33.01</v>
@@ -19552,7 +19493,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>30.83</v>
@@ -19566,7 +19507,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
@@ -19592,13 +19533,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -19606,7 +19547,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>4.87</v>
@@ -19620,7 +19561,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>2.51</v>
@@ -19634,7 +19575,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>1.98</v>
@@ -19648,7 +19589,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>1.28</v>
@@ -19662,7 +19603,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="n">
         <v>0.1</v>
@@ -19676,7 +19617,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="n">
         <v>1.36</v>
@@ -19690,7 +19631,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
         <v>1.03</v>
@@ -19704,7 +19645,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
         <v>1.53</v>
@@ -19718,7 +19659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="n">
         <v>1.09</v>
@@ -19732,7 +19673,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>1.16</v>
@@ -19746,7 +19687,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>1.44</v>
@@ -19760,7 +19701,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="n">
         <v>0.73</v>
@@ -19774,7 +19715,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="n">
         <v>0.56</v>
@@ -19788,7 +19729,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="n">
         <v>0.77</v>
@@ -19802,7 +19743,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="n">
         <v>2.03</v>
@@ -19816,7 +19757,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="n">
         <v>0.2</v>
@@ -19830,7 +19771,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>2.95</v>
@@ -19844,7 +19785,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="n">
         <v>4.49</v>
@@ -19858,7 +19799,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
